--- a/son/content/social_mobility_by_area/2.0/composite-indices-2.0--all.xlsx
+++ b/son/content/social_mobility_by_area/2.0/composite-indices-2.0--all.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Government Equality Hub\SON23\Code\smc-son\son\content\social_mobility_by_area\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Government Equality Hub\SON23\Code\smc-son\son\content\social_mobility_by_area\2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D9BD4D2-E3CA-4C97-8B4B-E3BF94F46AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0127CA5C-5469-44B2-83C7-3B35759B1D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32811" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{2AFF75E3-D5D5-4D23-A7C9-D5F7E4191DBE}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="29829" windowHeight="18000" xr2:uid="{2AFF75E3-D5D5-4D23-A7C9-D5F7E4191DBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="218">
   <si>
-    <t>Aberdeen City</t>
-  </si>
-  <si>
     <t>Middle Group</t>
   </si>
   <si>
@@ -131,33 +128,21 @@
     <t>Calderdale</t>
   </si>
   <si>
-    <t>Cambridgeshire CC</t>
-  </si>
-  <si>
     <t>Camden and City of London</t>
   </si>
   <si>
     <t>Cardiff</t>
   </si>
   <si>
-    <t>Carmarthenshire</t>
-  </si>
-  <si>
     <t>Central Bedfordshire</t>
   </si>
   <si>
-    <t>Ceredigion</t>
-  </si>
-  <si>
     <t>Cheshire East</t>
   </si>
   <si>
     <t>Cheshire West and Chester</t>
   </si>
   <si>
-    <t>City of Edinburgh</t>
-  </si>
-  <si>
     <t>Clackmannanshire</t>
   </si>
   <si>
@@ -173,24 +158,12 @@
     <t>Croydon</t>
   </si>
   <si>
-    <t>Cumbria</t>
-  </si>
-  <si>
     <t>Darlington</t>
   </si>
   <si>
-    <t>Denbighshire</t>
-  </si>
-  <si>
     <t>Derby</t>
   </si>
   <si>
-    <t>Derbyshire</t>
-  </si>
-  <si>
-    <t>Devon CC</t>
-  </si>
-  <si>
     <t>Doncaster</t>
   </si>
   <si>
@@ -203,12 +176,6 @@
     <t>Dumfries and Galloway</t>
   </si>
   <si>
-    <t>Dundee City</t>
-  </si>
-  <si>
-    <t>Durham</t>
-  </si>
-  <si>
     <t>Ealing</t>
   </si>
   <si>
@@ -227,33 +194,18 @@
     <t>East Riding of Yorkshire</t>
   </si>
   <si>
-    <t>East Sussex CC</t>
-  </si>
-  <si>
     <t>Enfield</t>
   </si>
   <si>
-    <t>Essex</t>
-  </si>
-  <si>
     <t>Falkirk</t>
   </si>
   <si>
     <t>Fife</t>
   </si>
   <si>
-    <t>Flintshire</t>
-  </si>
-  <si>
     <t>Gateshead</t>
   </si>
   <si>
-    <t>Glasgow City</t>
-  </si>
-  <si>
-    <t>Gloucestershire CC</t>
-  </si>
-  <si>
     <t>Greenwich</t>
   </si>
   <si>
@@ -269,9 +221,6 @@
     <t>Hammersmith and Fulham</t>
   </si>
   <si>
-    <t>Hampshire</t>
-  </si>
-  <si>
     <t>Haringey</t>
   </si>
   <si>
@@ -284,9 +233,6 @@
     <t>Havering</t>
   </si>
   <si>
-    <t>Hertfordshire CC</t>
-  </si>
-  <si>
     <t>Highland</t>
   </si>
   <si>
@@ -311,9 +257,6 @@
     <t>Kensington and Chelsea</t>
   </si>
   <si>
-    <t>Kent</t>
-  </si>
-  <si>
     <t>Kingston upon Thames</t>
   </si>
   <si>
@@ -326,24 +269,15 @@
     <t>Lambeth</t>
   </si>
   <si>
-    <t>Lancashire</t>
-  </si>
-  <si>
     <t>Leeds</t>
   </si>
   <si>
     <t>Leicester</t>
   </si>
   <si>
-    <t>Leicestershire CC</t>
-  </si>
-  <si>
     <t>Lewisham</t>
   </si>
   <si>
-    <t>Lincolnshire CC</t>
-  </si>
-  <si>
     <t>Liverpool</t>
   </si>
   <si>
@@ -371,9 +305,6 @@
     <t>Milton Keynes</t>
   </si>
   <si>
-    <t>Monmouthshire</t>
-  </si>
-  <si>
     <t>Moray</t>
   </si>
   <si>
@@ -392,9 +323,6 @@
     <t>Newport</t>
   </si>
   <si>
-    <t>North Ayrshire mainland</t>
-  </si>
-  <si>
     <t>North East Lincolnshire</t>
   </si>
   <si>
@@ -410,36 +338,18 @@
     <t>North Tyneside</t>
   </si>
   <si>
-    <t>North Yorkshire CC</t>
-  </si>
-  <si>
     <t>Northern Ireland</t>
   </si>
   <si>
-    <t>Northumberland</t>
-  </si>
-  <si>
-    <t>Norwich and Norfolk</t>
-  </si>
-  <si>
     <t>Nottingham</t>
   </si>
   <si>
-    <t>Nottinghamshire</t>
-  </si>
-  <si>
     <t>Oldham</t>
   </si>
   <si>
     <t>Orkney Islands</t>
   </si>
   <si>
-    <t>Oxfordshire CC</t>
-  </si>
-  <si>
-    <t>Pembrokeshire</t>
-  </si>
-  <si>
     <t>Perth and Kinross</t>
   </si>
   <si>
@@ -452,9 +362,6 @@
     <t>Portsmouth</t>
   </si>
   <si>
-    <t>Powys</t>
-  </si>
-  <si>
     <t>Reading</t>
   </si>
   <si>
@@ -479,9 +386,6 @@
     <t>Rotherham</t>
   </si>
   <si>
-    <t>Rutland</t>
-  </si>
-  <si>
     <t>Salford</t>
   </si>
   <si>
@@ -509,9 +413,6 @@
     <t>Solihull</t>
   </si>
   <si>
-    <t>Somerset CC</t>
-  </si>
-  <si>
     <t>South Ayrshire</t>
   </si>
   <si>
@@ -533,9 +434,6 @@
     <t>St Helens</t>
   </si>
   <si>
-    <t>Staffordshire CC</t>
-  </si>
-  <si>
     <t>Stirling</t>
   </si>
   <si>
@@ -548,15 +446,9 @@
     <t>Stoke-on-Trent</t>
   </si>
   <si>
-    <t>Suffolk CC</t>
-  </si>
-  <si>
     <t>Sunderland</t>
   </si>
   <si>
-    <t>Surrey</t>
-  </si>
-  <si>
     <t>Sutton</t>
   </si>
   <si>
@@ -605,9 +497,6 @@
     <t>Warrington</t>
   </si>
   <si>
-    <t>Warwickshire CC</t>
-  </si>
-  <si>
     <t>West Berkshire</t>
   </si>
   <si>
@@ -620,9 +509,6 @@
     <t>West Northamptonshire</t>
   </si>
   <si>
-    <t>West Sussex</t>
-  </si>
-  <si>
     <t>Westminster</t>
   </si>
   <si>
@@ -644,9 +530,6 @@
     <t>Wolverhampton</t>
   </si>
   <si>
-    <t>Worcestershire CC</t>
-  </si>
-  <si>
     <t>Wrexham</t>
   </si>
   <si>
@@ -665,15 +548,6 @@
     <t>childhood_conditions_group_id</t>
   </si>
   <si>
-    <t>City of Bristol</t>
-  </si>
-  <si>
-    <t>County of Herefordshire</t>
-  </si>
-  <si>
-    <t>City of Kingston upon Hull</t>
-  </si>
-  <si>
     <t>innovation_and_growth_group_name</t>
   </si>
   <si>
@@ -690,6 +564,132 @@
   </si>
   <si>
     <t>promising_prospects_group_id</t>
+  </si>
+  <si>
+    <t>Aberdeen city</t>
+  </si>
+  <si>
+    <t>Bristol</t>
+  </si>
+  <si>
+    <t>Cambridgeshire county council</t>
+  </si>
+  <si>
+    <t>Carmarthenshire county council</t>
+  </si>
+  <si>
+    <t>Ceredigion county council</t>
+  </si>
+  <si>
+    <t>Edinburgh city</t>
+  </si>
+  <si>
+    <t>Cumbria county council</t>
+  </si>
+  <si>
+    <t>Denbighshire county council</t>
+  </si>
+  <si>
+    <t>Derbyshire county council</t>
+  </si>
+  <si>
+    <t>Devon county council</t>
+  </si>
+  <si>
+    <t>Dundee city</t>
+  </si>
+  <si>
+    <t>Durham county council</t>
+  </si>
+  <si>
+    <t>East Sussex county council</t>
+  </si>
+  <si>
+    <t>Essex county council</t>
+  </si>
+  <si>
+    <t>Flintshire county council</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Gloucestershire county council</t>
+  </si>
+  <si>
+    <t>Hampshire county council</t>
+  </si>
+  <si>
+    <t>Herefordshire</t>
+  </si>
+  <si>
+    <t>Hertfordshire county council</t>
+  </si>
+  <si>
+    <t>Kent county council</t>
+  </si>
+  <si>
+    <t>Hull</t>
+  </si>
+  <si>
+    <t>Lancashire county council</t>
+  </si>
+  <si>
+    <t>Leicestershire county council</t>
+  </si>
+  <si>
+    <t>Lincolnshire county council</t>
+  </si>
+  <si>
+    <t>Monmouthshire county council</t>
+  </si>
+  <si>
+    <t>North Ayrshire</t>
+  </si>
+  <si>
+    <t>North Yorkshire county council</t>
+  </si>
+  <si>
+    <t>Northumberland county council</t>
+  </si>
+  <si>
+    <t>Norwich and Norfolk county council</t>
+  </si>
+  <si>
+    <t>Nottinghamshire county council</t>
+  </si>
+  <si>
+    <t>Oxfordshire county council</t>
+  </si>
+  <si>
+    <t>Pembrokeshire county council</t>
+  </si>
+  <si>
+    <t>Powys county council</t>
+  </si>
+  <si>
+    <t>Rutland county council</t>
+  </si>
+  <si>
+    <t>Somerset county council</t>
+  </si>
+  <si>
+    <t>Staffordshire county council</t>
+  </si>
+  <si>
+    <t>Suffolk county council</t>
+  </si>
+  <si>
+    <t>Surrey county council</t>
+  </si>
+  <si>
+    <t>Warwickshire county council</t>
+  </si>
+  <si>
+    <t>West Sussex county council</t>
+  </si>
+  <si>
+    <t>Worcestershire county council</t>
   </si>
 </sst>
 </file>
@@ -1069,37 +1069,37 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>205</v>
+        <v>166</v>
       </c>
       <c r="B1" t="s">
-        <v>206</v>
+        <v>167</v>
       </c>
       <c r="C1" t="s">
-        <v>207</v>
+        <v>168</v>
       </c>
       <c r="D1" t="s">
-        <v>208</v>
+        <v>169</v>
       </c>
       <c r="E1" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
       <c r="F1" t="s">
-        <v>213</v>
+        <v>171</v>
       </c>
       <c r="G1" t="s">
-        <v>214</v>
+        <v>172</v>
       </c>
       <c r="H1" t="s">
-        <v>215</v>
+        <v>173</v>
       </c>
       <c r="I1" t="s">
-        <v>216</v>
+        <v>174</v>
       </c>
       <c r="J1" t="s">
-        <v>217</v>
+        <v>175</v>
       </c>
       <c r="N1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O1">
         <v>1</v>
@@ -1111,38 +1111,38 @@
         <v>aberdeen_city</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <f>VLOOKUP(C2,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <f>VLOOKUP(E2,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <f>VLOOKUP(G2,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <f>VLOOKUP(I2,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O2">
         <v>2</v>
@@ -1154,38 +1154,38 @@
         <v>aberdeenshire</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:F66" si="1">VLOOKUP(C3,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:J3" si="2">VLOOKUP(G3,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>3</v>
@@ -1197,38 +1197,38 @@
         <v>angus</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <f t="shared" ref="H4:J4" si="3">VLOOKUP(G4,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O4">
         <v>4</v>
@@ -1240,38 +1240,38 @@
         <v>argyll_and_bute_islands</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D5">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
       <c r="G5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H5">
         <f t="shared" ref="H5:J5" si="4">VLOOKUP(G5,$N$1:$O$5,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O5">
         <v>5</v>
@@ -1283,31 +1283,31 @@
         <v>barking_and_dagenham</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <f t="shared" ref="H6:J6" si="5">VLOOKUP(G6,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <f t="shared" si="5"/>
@@ -1320,31 +1320,31 @@
         <v>barnet</v>
       </c>
       <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
       <c r="D7">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <f t="shared" ref="H7:J7" si="6">VLOOKUP(G7,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J7">
         <f t="shared" si="6"/>
@@ -1357,31 +1357,31 @@
         <v>barnsley</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <f t="shared" ref="H8:J8" si="7">VLOOKUP(G8,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J8">
         <f t="shared" si="7"/>
@@ -1394,31 +1394,31 @@
         <v>bath_and_north_east_somerset</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H9">
         <f t="shared" ref="H9:J9" si="8">VLOOKUP(G9,$N$1:$O$5,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="I9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <f t="shared" si="8"/>
@@ -1431,31 +1431,31 @@
         <v>bedford</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <f t="shared" ref="H10:J10" si="9">VLOOKUP(G10,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J10">
         <f t="shared" si="9"/>
@@ -1468,31 +1468,31 @@
         <v>bexley</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <f t="shared" ref="H11:J11" si="10">VLOOKUP(G11,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J11">
         <f t="shared" si="10"/>
@@ -1505,31 +1505,31 @@
         <v>birmingham</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H12">
         <f t="shared" ref="H12:J12" si="11">VLOOKUP(G12,$N$1:$O$5,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <f t="shared" si="11"/>
@@ -1542,31 +1542,31 @@
         <v>blackburn_with_darwen</v>
       </c>
       <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
         <v>14</v>
       </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
       <c r="D13">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <f t="shared" ref="H13:J13" si="12">VLOOKUP(G13,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <f t="shared" si="12"/>
@@ -1579,31 +1579,31 @@
         <v>blackpool</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <f t="shared" ref="H14:J14" si="13">VLOOKUP(G14,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <f t="shared" si="13"/>
@@ -1616,31 +1616,31 @@
         <v>blaenau_gwent</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <f t="shared" ref="H15:J15" si="14">VLOOKUP(G15,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <f t="shared" si="14"/>
@@ -1653,31 +1653,31 @@
         <v>bolton</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <f t="shared" ref="H16:J16" si="15">VLOOKUP(G16,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <f t="shared" si="15"/>
@@ -1690,31 +1690,31 @@
         <v>bournemouth,_christchurch_and_poole</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G17" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17">
         <f t="shared" ref="H17:J17" si="16">VLOOKUP(G17,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I17" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <f t="shared" si="16"/>
@@ -1727,31 +1727,31 @@
         <v>bracknell_forest</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H18">
         <f t="shared" ref="H18:J18" si="17">VLOOKUP(G18,$N$1:$O$5,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="I18" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <f t="shared" si="17"/>
@@ -1764,31 +1764,31 @@
         <v>bradford</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G19" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <f t="shared" ref="H19:J19" si="18">VLOOKUP(G19,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I19" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <f t="shared" si="18"/>
@@ -1801,31 +1801,31 @@
         <v>brent</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G20" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20">
         <f t="shared" ref="H20:J20" si="19">VLOOKUP(G20,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J20">
         <f t="shared" si="19"/>
@@ -1838,31 +1838,31 @@
         <v>bridgend</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G21" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21">
         <f t="shared" ref="H21:J21" si="20">VLOOKUP(G21,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I21" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <f t="shared" si="20"/>
@@ -1875,31 +1875,31 @@
         <v>brighton_and_hove</v>
       </c>
       <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" t="s">
         <v>24</v>
       </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
       <c r="D22">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G22" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <f t="shared" ref="H22:J22" si="21">VLOOKUP(G22,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J22">
         <f t="shared" si="21"/>
@@ -1909,34 +1909,34 @@
     <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
-        <v>city_of_bristol</v>
+        <v>bristol</v>
       </c>
       <c r="B23" t="s">
-        <v>209</v>
+        <v>177</v>
       </c>
       <c r="C23" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F23">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H23">
         <f t="shared" ref="H23:J23" si="22">VLOOKUP(G23,$N$1:$O$5,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="I23" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <f t="shared" si="22"/>
@@ -1949,31 +1949,31 @@
         <v>bromley</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D24">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="E24" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H24">
         <f t="shared" ref="H24:J24" si="23">VLOOKUP(G24,$N$1:$O$5,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="I24" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <f t="shared" si="23"/>
@@ -1986,31 +1986,31 @@
         <v>buckinghamshire</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="E25" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H25">
         <f t="shared" ref="H25:J25" si="24">VLOOKUP(G25,$N$1:$O$5,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="I25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J25">
         <f t="shared" si="24"/>
@@ -2023,31 +2023,31 @@
         <v>bury</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G26" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26">
         <f t="shared" ref="H26:J26" si="25">VLOOKUP(G26,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I26" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <f t="shared" si="25"/>
@@ -2060,31 +2060,31 @@
         <v>caerphilly</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F27">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G27" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27">
         <f t="shared" ref="H27:J27" si="26">VLOOKUP(G27,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I27" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27">
         <f t="shared" si="26"/>
@@ -2097,31 +2097,31 @@
         <v>calderdale</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G28" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28">
         <f t="shared" ref="H28:J28" si="27">VLOOKUP(G28,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I28" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28">
         <f t="shared" si="27"/>
@@ -2131,34 +2131,34 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
-        <v>cambridgeshire_cc</v>
+        <v>cambridgeshire_county_council</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>178</v>
       </c>
       <c r="C29" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F29">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G29" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29">
         <f t="shared" ref="H29:J29" si="28">VLOOKUP(G29,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I29" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29">
         <f t="shared" si="28"/>
@@ -2171,31 +2171,31 @@
         <v>camden_and_city_of_london</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D30">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="E30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F30">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="G30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H30">
         <f t="shared" ref="H30:J30" si="29">VLOOKUP(G30,$N$1:$O$5,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="I30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J30">
         <f t="shared" si="29"/>
@@ -2208,31 +2208,31 @@
         <v>cardiff</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F31">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G31" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31">
         <f t="shared" ref="H31:J31" si="30">VLOOKUP(G31,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I31" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31">
         <f t="shared" si="30"/>
@@ -2242,34 +2242,34 @@
     <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
-        <v>carmarthenshire</v>
+        <v>carmarthenshire_county_council</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>179</v>
       </c>
       <c r="C32" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F32">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H32">
         <f t="shared" ref="H32:J32" si="31">VLOOKUP(G32,$N$1:$O$5,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="I32" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32">
         <f t="shared" si="31"/>
@@ -2282,31 +2282,31 @@
         <v>central_bedfordshire</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G33" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33">
         <f t="shared" ref="H33:J33" si="32">VLOOKUP(G33,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J33">
         <f t="shared" si="32"/>
@@ -2316,34 +2316,34 @@
     <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
-        <v>ceredigion</v>
+        <v>ceredigion_county_council</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="C34" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F34">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G34" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34">
         <f t="shared" ref="H34:J34" si="33">VLOOKUP(G34,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I34" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34">
         <f t="shared" si="33"/>
@@ -2356,31 +2356,31 @@
         <v>cheshire_east</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F35">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G35" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35">
         <f t="shared" ref="H35:J35" si="34">VLOOKUP(G35,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J35">
         <f t="shared" si="34"/>
@@ -2393,31 +2393,31 @@
         <v>cheshire_west_and_chester</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D36">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="E36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F36">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G36" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36">
         <f t="shared" ref="H36:J36" si="35">VLOOKUP(G36,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I36" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36">
         <f t="shared" si="35"/>
@@ -2427,34 +2427,34 @@
     <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
-        <v>city_of_edinburgh</v>
+        <v>edinburgh_city</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>181</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D37">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="E37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F37">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H37">
         <f t="shared" ref="H37:J37" si="36">VLOOKUP(G37,$N$1:$O$5,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="I37" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37">
         <f t="shared" si="36"/>
@@ -2467,31 +2467,31 @@
         <v>clackmannanshire</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C38" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G38" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38">
         <f t="shared" ref="H38:J38" si="37">VLOOKUP(G38,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I38" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38">
         <f t="shared" si="37"/>
@@ -2504,31 +2504,31 @@
         <v>conwy</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C39" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G39" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39">
         <f t="shared" ref="H39:J39" si="38">VLOOKUP(G39,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I39" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39">
         <f t="shared" si="38"/>
@@ -2541,31 +2541,31 @@
         <v>cornwall_and_isles_of_scilly</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D40">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="E40" t="s">
-        <v>15</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
       <c r="G40" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40">
         <f t="shared" ref="H40:J40" si="39">VLOOKUP(G40,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J40">
         <f t="shared" si="39"/>
@@ -2578,31 +2578,31 @@
         <v>coventry</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C41" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E41" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G41" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41">
         <f t="shared" ref="H41:J41" si="40">VLOOKUP(G41,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I41" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41">
         <f t="shared" si="40"/>
@@ -2615,31 +2615,31 @@
         <v>croydon</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C42" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E42" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G42" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
         <f t="shared" ref="H42:J42" si="41">VLOOKUP(G42,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I42" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42">
         <f t="shared" si="41"/>
@@ -2649,34 +2649,34 @@
     <row r="43" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
-        <v>cumbria</v>
+        <v>cumbria_county_council</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>182</v>
       </c>
       <c r="C43" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E43" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G43" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
         <f t="shared" ref="H43:J43" si="42">VLOOKUP(G43,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I43" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43">
         <f t="shared" si="42"/>
@@ -2689,31 +2689,31 @@
         <v>darlington</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C44" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E44" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H44">
         <f t="shared" ref="H44:J44" si="43">VLOOKUP(G44,$N$1:$O$5,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="I44" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44">
         <f t="shared" si="43"/>
@@ -2723,34 +2723,34 @@
     <row r="45" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
-        <v>denbighshire</v>
+        <v>denbighshire_county_council</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>183</v>
       </c>
       <c r="C45" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E45" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G45" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45">
         <f t="shared" ref="H45:J45" si="44">VLOOKUP(G45,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I45" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45">
         <f t="shared" si="44"/>
@@ -2763,31 +2763,31 @@
         <v>derby</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C46" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G46" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46">
         <f t="shared" ref="H46:J46" si="45">VLOOKUP(G46,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I46" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46">
         <f t="shared" si="45"/>
@@ -2797,34 +2797,34 @@
     <row r="47" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
-        <v>derbyshire</v>
+        <v>derbyshire_county_council</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
+        <v>184</v>
       </c>
       <c r="C47" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E47" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G47" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47">
         <f t="shared" ref="H47:J47" si="46">VLOOKUP(G47,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I47" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47">
         <f t="shared" si="46"/>
@@ -2834,34 +2834,34 @@
     <row r="48" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
-        <v>devon_cc</v>
+        <v>devon_county_council</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>185</v>
       </c>
       <c r="C48" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E48" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G48" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48">
         <f t="shared" ref="H48:J48" si="47">VLOOKUP(G48,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I48" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48">
         <f t="shared" si="47"/>
@@ -2874,31 +2874,31 @@
         <v>doncaster</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D49">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E49" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G49" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49">
         <f t="shared" ref="H49:J49" si="48">VLOOKUP(G49,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I49" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49">
         <f t="shared" si="48"/>
@@ -2911,31 +2911,31 @@
         <v>dorset</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C50" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E50" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G50" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50">
         <f t="shared" ref="H50:J50" si="49">VLOOKUP(G50,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I50" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50">
         <f t="shared" si="49"/>
@@ -2948,31 +2948,31 @@
         <v>dudley</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C51" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E51" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G51" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51">
         <f t="shared" ref="H51:J51" si="50">VLOOKUP(G51,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I51" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51">
         <f t="shared" si="50"/>
@@ -2985,31 +2985,31 @@
         <v>dumfries_and_galloway</v>
       </c>
       <c r="B52" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C52" t="s">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E52" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D52">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="E52" t="s">
-        <v>15</v>
-      </c>
-      <c r="F52">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
       <c r="G52" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H52">
         <f t="shared" ref="H52:J52" si="51">VLOOKUP(G52,$N$1:$O$5,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="I52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J52">
         <f t="shared" si="51"/>
@@ -3022,31 +3022,31 @@
         <v>dundee_city</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>186</v>
       </c>
       <c r="C53" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E53" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G53" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53">
         <f t="shared" ref="H53:J53" si="52">VLOOKUP(G53,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I53" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53">
         <f t="shared" si="52"/>
@@ -3056,34 +3056,34 @@
     <row r="54" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
-        <v>durham</v>
+        <v>durham_county_council</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>187</v>
       </c>
       <c r="C54" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E54" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F54">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G54" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H54">
         <f t="shared" ref="H54:J54" si="53">VLOOKUP(G54,$N$1:$O$5,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="I54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J54">
         <f t="shared" si="53"/>
@@ -3096,31 +3096,31 @@
         <v>ealing</v>
       </c>
       <c r="B55" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C55" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F55">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G55" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55">
         <f t="shared" ref="H55:J55" si="54">VLOOKUP(G55,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I55" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J55">
         <f t="shared" si="54"/>
@@ -3133,31 +3133,31 @@
         <v>east_ayrshire</v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C56" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F56">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G56" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56">
         <f t="shared" ref="H56:J56" si="55">VLOOKUP(G56,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J56">
         <f t="shared" si="55"/>
@@ -3170,31 +3170,31 @@
         <v>east_dunbartonshire</v>
       </c>
       <c r="B57" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C57" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D57">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="E57" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G57" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57">
         <f t="shared" ref="H57:J57" si="56">VLOOKUP(G57,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I57" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57">
         <f t="shared" si="56"/>
@@ -3207,31 +3207,31 @@
         <v>east_lothian</v>
       </c>
       <c r="B58" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C58" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E58" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G58" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58">
         <f t="shared" ref="H58:J58" si="57">VLOOKUP(G58,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I58" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58">
         <f t="shared" si="57"/>
@@ -3244,31 +3244,31 @@
         <v>east_renfrewshire</v>
       </c>
       <c r="B59" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C59" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D59">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="E59" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G59" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59">
         <f t="shared" ref="H59:J59" si="58">VLOOKUP(G59,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I59" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59">
         <f t="shared" si="58"/>
@@ -3281,31 +3281,31 @@
         <v>east_riding_of_yorkshire</v>
       </c>
       <c r="B60" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C60" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D60">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E60" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G60" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60">
         <f t="shared" ref="H60:J60" si="59">VLOOKUP(G60,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I60" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60">
         <f t="shared" si="59"/>
@@ -3315,34 +3315,34 @@
     <row r="61" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
-        <v>east_sussex_cc</v>
+        <v>east_sussex_county_council</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
+        <v>188</v>
       </c>
       <c r="C61" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E61" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G61" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61">
         <f t="shared" ref="H61:J61" si="60">VLOOKUP(G61,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I61" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61">
         <f t="shared" si="60"/>
@@ -3355,31 +3355,31 @@
         <v>enfield</v>
       </c>
       <c r="B62" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C62" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D62">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E62" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G62" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62">
         <f t="shared" ref="H62:J62" si="61">VLOOKUP(G62,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I62" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J62">
         <f t="shared" si="61"/>
@@ -3389,34 +3389,34 @@
     <row r="63" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
-        <v>essex</v>
+        <v>essex_county_council</v>
       </c>
       <c r="B63" t="s">
-        <v>65</v>
+        <v>189</v>
       </c>
       <c r="C63" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D63">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E63" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G63" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H63">
         <f t="shared" ref="H63:J63" si="62">VLOOKUP(G63,$N$1:$O$5,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="I63" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63">
         <f t="shared" si="62"/>
@@ -3429,31 +3429,31 @@
         <v>falkirk</v>
       </c>
       <c r="B64" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C64" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D64">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E64" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G64" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64">
         <f t="shared" ref="H64:J64" si="63">VLOOKUP(G64,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I64" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64">
         <f t="shared" si="63"/>
@@ -3466,31 +3466,31 @@
         <v>fife</v>
       </c>
       <c r="B65" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="C65" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D65">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E65" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G65" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65">
         <f t="shared" ref="H65:J65" si="64">VLOOKUP(G65,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I65" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65">
         <f t="shared" si="64"/>
@@ -3500,34 +3500,34 @@
     <row r="66" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A66" t="str">
         <f t="shared" ref="A66:A129" si="65">LOWER(SUBSTITUTE(B66," ","_"))</f>
-        <v>flintshire</v>
+        <v>flintshire_county_council</v>
       </c>
       <c r="B66" t="s">
-        <v>68</v>
+        <v>190</v>
       </c>
       <c r="C66" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D66">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E66" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G66" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66">
         <f t="shared" ref="H66:J66" si="66">VLOOKUP(G66,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I66" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66">
         <f t="shared" si="66"/>
@@ -3540,31 +3540,31 @@
         <v>gateshead</v>
       </c>
       <c r="B67" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C67" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D67">
         <f t="shared" ref="D67:F130" si="67">VLOOKUP(C67,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="E67" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="G67" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67">
         <f t="shared" ref="H67:J67" si="68">VLOOKUP(G67,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I67" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J67">
         <f t="shared" si="68"/>
@@ -3574,34 +3574,34 @@
     <row r="68" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A68" t="str">
         <f t="shared" si="65"/>
-        <v>glasgow_city</v>
+        <v>glasgow</v>
       </c>
       <c r="B68" t="s">
-        <v>70</v>
+        <v>191</v>
       </c>
       <c r="C68" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D68">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="E68" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="G68" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68">
         <f t="shared" ref="H68:J68" si="69">VLOOKUP(G68,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I68" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68">
         <f t="shared" si="69"/>
@@ -3611,34 +3611,34 @@
     <row r="69" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A69" t="str">
         <f t="shared" si="65"/>
-        <v>gloucestershire_cc</v>
+        <v>gloucestershire_county_council</v>
       </c>
       <c r="B69" t="s">
-        <v>71</v>
+        <v>192</v>
       </c>
       <c r="C69" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D69">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="E69" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="G69" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69">
         <f t="shared" ref="H69:J69" si="70">VLOOKUP(G69,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I69" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69">
         <f t="shared" si="70"/>
@@ -3651,31 +3651,31 @@
         <v>greenwich</v>
       </c>
       <c r="B70" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C70" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D70">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="E70" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="G70" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70">
         <f t="shared" ref="H70:J70" si="71">VLOOKUP(G70,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I70" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70">
         <f t="shared" si="71"/>
@@ -3688,31 +3688,31 @@
         <v>gwynedd</v>
       </c>
       <c r="B71" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C71" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D71">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="E71" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F71">
         <f t="shared" si="67"/>
         <v>2</v>
       </c>
       <c r="G71" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H71">
         <f t="shared" ref="H71:J71" si="72">VLOOKUP(G71,$N$1:$O$5,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="I71" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71">
         <f t="shared" si="72"/>
@@ -3725,31 +3725,31 @@
         <v>hackney</v>
       </c>
       <c r="B72" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C72" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D72">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="E72" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F72">
         <f t="shared" si="67"/>
         <v>4</v>
       </c>
       <c r="G72" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H72">
         <f t="shared" ref="H72:J72" si="73">VLOOKUP(G72,$N$1:$O$5,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="I72" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J72">
         <f t="shared" si="73"/>
@@ -3762,31 +3762,31 @@
         <v>halton</v>
       </c>
       <c r="B73" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C73" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D73">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="E73" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="G73" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73">
         <f t="shared" ref="H73:J73" si="74">VLOOKUP(G73,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I73" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73">
         <f t="shared" si="74"/>
@@ -3799,31 +3799,31 @@
         <v>hammersmith_and_fulham</v>
       </c>
       <c r="B74" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D74">
         <f t="shared" si="67"/>
         <v>4</v>
       </c>
       <c r="E74" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F74">
         <f t="shared" si="67"/>
         <v>5</v>
       </c>
       <c r="G74" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H74">
         <f t="shared" ref="H74:J74" si="75">VLOOKUP(G74,$N$1:$O$5,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="I74" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J74">
         <f t="shared" si="75"/>
@@ -3833,34 +3833,34 @@
     <row r="75" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A75" t="str">
         <f t="shared" si="65"/>
-        <v>hampshire</v>
+        <v>hampshire_county_council</v>
       </c>
       <c r="B75" t="s">
-        <v>77</v>
+        <v>193</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D75">
         <f t="shared" si="67"/>
         <v>4</v>
       </c>
       <c r="E75" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="G75" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75">
         <f t="shared" ref="H75:J75" si="76">VLOOKUP(G75,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I75" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75">
         <f t="shared" si="76"/>
@@ -3873,31 +3873,31 @@
         <v>haringey</v>
       </c>
       <c r="B76" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="C76" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D76">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="E76" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="G76" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76">
         <f t="shared" ref="H76:J76" si="77">VLOOKUP(G76,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I76" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J76">
         <f t="shared" si="77"/>
@@ -3910,31 +3910,31 @@
         <v>harrow</v>
       </c>
       <c r="B77" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C77" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D77">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="E77" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="G77" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77">
         <f t="shared" ref="H77:J77" si="78">VLOOKUP(G77,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I77" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J77">
         <f t="shared" si="78"/>
@@ -3947,31 +3947,31 @@
         <v>hartlepool</v>
       </c>
       <c r="B78" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="C78" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D78">
         <f t="shared" si="67"/>
         <v>2</v>
       </c>
       <c r="E78" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="G78" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H78">
         <f t="shared" ref="H78:J78" si="79">VLOOKUP(G78,$N$1:$O$5,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="I78" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J78">
         <f t="shared" si="79"/>
@@ -3984,31 +3984,31 @@
         <v>havering</v>
       </c>
       <c r="B79" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="C79" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D79">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="E79" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="G79" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H79">
         <f t="shared" ref="H79:J79" si="80">VLOOKUP(G79,$N$1:$O$5,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="I79" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79">
         <f t="shared" si="80"/>
@@ -4018,34 +4018,34 @@
     <row r="80" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A80" t="str">
         <f t="shared" si="65"/>
-        <v>county_of_herefordshire</v>
+        <v>herefordshire</v>
       </c>
       <c r="B80" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="C80" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D80">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="E80" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="G80" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80">
         <f t="shared" ref="H80:J80" si="81">VLOOKUP(G80,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I80" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80">
         <f t="shared" si="81"/>
@@ -4055,34 +4055,34 @@
     <row r="81" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A81" t="str">
         <f t="shared" si="65"/>
-        <v>hertfordshire_cc</v>
+        <v>hertfordshire_county_council</v>
       </c>
       <c r="B81" t="s">
-        <v>82</v>
+        <v>195</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D81">
         <f t="shared" si="67"/>
         <v>4</v>
       </c>
       <c r="E81" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F81">
         <f t="shared" si="67"/>
         <v>4</v>
       </c>
       <c r="G81" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H81">
         <f t="shared" ref="H81:J81" si="82">VLOOKUP(G81,$N$1:$O$5,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="I81" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J81">
         <f t="shared" si="82"/>
@@ -4095,31 +4095,31 @@
         <v>highland</v>
       </c>
       <c r="B82" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="C82" t="s">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="67"/>
+        <v>3</v>
+      </c>
+      <c r="E82" t="s">
+        <v>14</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="67"/>
         <v>1</v>
       </c>
-      <c r="D82">
-        <f t="shared" si="67"/>
-        <v>3</v>
-      </c>
-      <c r="E82" t="s">
-        <v>15</v>
-      </c>
-      <c r="F82">
-        <f t="shared" si="67"/>
-        <v>1</v>
-      </c>
       <c r="G82" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82">
         <f t="shared" ref="H82:J82" si="83">VLOOKUP(G82,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I82" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82">
         <f t="shared" si="83"/>
@@ -4132,31 +4132,31 @@
         <v>hillingdon</v>
       </c>
       <c r="B83" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C83" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D83">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="E83" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="G83" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83">
         <f t="shared" ref="H83:J83" si="84">VLOOKUP(G83,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I83" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J83">
         <f t="shared" si="84"/>
@@ -4169,31 +4169,31 @@
         <v>hounslow</v>
       </c>
       <c r="B84" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="C84" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D84">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="E84" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F84">
         <f t="shared" si="67"/>
         <v>4</v>
       </c>
       <c r="G84" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84">
         <f t="shared" ref="H84:J84" si="85">VLOOKUP(G84,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I84" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J84">
         <f t="shared" si="85"/>
@@ -4206,31 +4206,31 @@
         <v>inverclyde</v>
       </c>
       <c r="B85" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C85" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D85">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="E85" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="G85" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85">
         <f t="shared" ref="H85:J85" si="86">VLOOKUP(G85,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I85" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85">
         <f t="shared" si="86"/>
@@ -4243,31 +4243,31 @@
         <v>isle_of_anglesey</v>
       </c>
       <c r="B86" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C86" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D86">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="E86" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F86">
         <f t="shared" si="67"/>
         <v>2</v>
       </c>
       <c r="G86" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86">
         <f t="shared" ref="H86:J86" si="87">VLOOKUP(G86,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I86" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86">
         <f t="shared" si="87"/>
@@ -4280,31 +4280,31 @@
         <v>isle_of_wight</v>
       </c>
       <c r="B87" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="C87" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D87">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="E87" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="G87" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87">
         <f t="shared" ref="H87:J87" si="88">VLOOKUP(G87,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I87" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87">
         <f t="shared" si="88"/>
@@ -4317,31 +4317,31 @@
         <v>islington</v>
       </c>
       <c r="B88" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C88" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D88">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="E88" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F88">
         <f t="shared" si="67"/>
         <v>4</v>
       </c>
       <c r="G88" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H88">
         <f t="shared" ref="H88:J88" si="89">VLOOKUP(G88,$N$1:$O$5,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="I88" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J88">
         <f t="shared" si="89"/>
@@ -4354,31 +4354,31 @@
         <v>kensington_and_chelsea</v>
       </c>
       <c r="B89" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D89">
         <f t="shared" si="67"/>
         <v>4</v>
       </c>
       <c r="E89" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F89">
         <f t="shared" si="67"/>
         <v>5</v>
       </c>
       <c r="G89" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H89">
         <f t="shared" ref="H89:J89" si="90">VLOOKUP(G89,$N$1:$O$5,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="I89" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J89">
         <f t="shared" si="90"/>
@@ -4388,34 +4388,34 @@
     <row r="90" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A90" t="str">
         <f t="shared" si="65"/>
-        <v>kent</v>
+        <v>kent_county_council</v>
       </c>
       <c r="B90" t="s">
-        <v>91</v>
+        <v>196</v>
       </c>
       <c r="C90" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D90">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="E90" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="G90" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H90">
         <f t="shared" ref="H90:J90" si="91">VLOOKUP(G90,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I90" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90">
         <f t="shared" si="91"/>
@@ -4425,34 +4425,34 @@
     <row r="91" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A91" t="str">
         <f t="shared" si="65"/>
-        <v>city_of_kingston_upon_hull</v>
+        <v>hull</v>
       </c>
       <c r="B91" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="C91" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D91">
         <f t="shared" si="67"/>
         <v>1</v>
       </c>
       <c r="E91" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="G91" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91">
         <f t="shared" ref="H91:J91" si="92">VLOOKUP(G91,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I91" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J91">
         <f t="shared" si="92"/>
@@ -4465,31 +4465,31 @@
         <v>kingston_upon_thames</v>
       </c>
       <c r="B92" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="C92" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D92">
         <f t="shared" si="67"/>
         <v>5</v>
       </c>
       <c r="E92" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="G92" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H92">
         <f t="shared" ref="H92:J92" si="93">VLOOKUP(G92,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I92" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J92">
         <f t="shared" si="93"/>
@@ -4502,31 +4502,31 @@
         <v>kirklees</v>
       </c>
       <c r="B93" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="C93" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D93">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="E93" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="G93" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93">
         <f t="shared" ref="H93:J93" si="94">VLOOKUP(G93,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I93" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J93">
         <f t="shared" si="94"/>
@@ -4539,31 +4539,31 @@
         <v>knowsley</v>
       </c>
       <c r="B94" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="C94" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D94">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="E94" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="G94" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H94">
         <f t="shared" ref="H94:J94" si="95">VLOOKUP(G94,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I94" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94">
         <f t="shared" si="95"/>
@@ -4576,31 +4576,31 @@
         <v>lambeth</v>
       </c>
       <c r="B95" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="C95" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D95">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="E95" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F95">
         <f t="shared" si="67"/>
         <v>4</v>
       </c>
       <c r="G95" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H95">
         <f t="shared" ref="H95:J95" si="96">VLOOKUP(G95,$N$1:$O$5,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="I95" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J95">
         <f t="shared" si="96"/>
@@ -4610,34 +4610,34 @@
     <row r="96" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A96" t="str">
         <f t="shared" si="65"/>
-        <v>lancashire</v>
+        <v>lancashire_county_council</v>
       </c>
       <c r="B96" t="s">
-        <v>96</v>
+        <v>198</v>
       </c>
       <c r="C96" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D96">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="E96" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="G96" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96">
         <f t="shared" ref="H96:J96" si="97">VLOOKUP(G96,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I96" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96">
         <f t="shared" si="97"/>
@@ -4650,31 +4650,31 @@
         <v>leeds</v>
       </c>
       <c r="B97" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="C97" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D97">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="E97" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="G97" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97">
         <f t="shared" ref="H97:J97" si="98">VLOOKUP(G97,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I97" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97">
         <f t="shared" si="98"/>
@@ -4687,31 +4687,31 @@
         <v>leicester</v>
       </c>
       <c r="B98" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="C98" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D98">
         <f t="shared" si="67"/>
         <v>1</v>
       </c>
       <c r="E98" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="G98" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98">
         <f t="shared" ref="H98:J98" si="99">VLOOKUP(G98,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I98" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98">
         <f t="shared" si="99"/>
@@ -4721,34 +4721,34 @@
     <row r="99" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A99" t="str">
         <f t="shared" si="65"/>
-        <v>leicestershire_cc</v>
+        <v>leicestershire_county_council</v>
       </c>
       <c r="B99" t="s">
-        <v>99</v>
+        <v>199</v>
       </c>
       <c r="C99" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D99">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="E99" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="G99" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99">
         <f t="shared" ref="H99:J99" si="100">VLOOKUP(G99,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I99" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99">
         <f t="shared" si="100"/>
@@ -4761,31 +4761,31 @@
         <v>lewisham</v>
       </c>
       <c r="B100" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C100" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D100">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="E100" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="G100" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H100">
         <f t="shared" ref="H100:J100" si="101">VLOOKUP(G100,$N$1:$O$5,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="I100" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J100">
         <f t="shared" si="101"/>
@@ -4795,34 +4795,34 @@
     <row r="101" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A101" t="str">
         <f t="shared" si="65"/>
-        <v>lincolnshire_cc</v>
+        <v>lincolnshire_county_council</v>
       </c>
       <c r="B101" t="s">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="C101" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D101">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="E101" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F101">
         <f t="shared" si="67"/>
         <v>2</v>
       </c>
       <c r="G101" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101">
         <f t="shared" ref="H101:J101" si="102">VLOOKUP(G101,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I101" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101">
         <f t="shared" si="102"/>
@@ -4835,31 +4835,31 @@
         <v>liverpool</v>
       </c>
       <c r="B102" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="C102" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D102">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="E102" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="G102" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H102">
         <f t="shared" ref="H102:J102" si="103">VLOOKUP(G102,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I102" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102">
         <f t="shared" si="103"/>
@@ -4872,31 +4872,31 @@
         <v>luton</v>
       </c>
       <c r="B103" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="C103" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D103">
         <f t="shared" si="67"/>
         <v>2</v>
       </c>
       <c r="E103" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="G103" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H103">
         <f t="shared" ref="H103:J103" si="104">VLOOKUP(G103,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I103" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J103">
         <f t="shared" si="104"/>
@@ -4909,31 +4909,31 @@
         <v>manchester</v>
       </c>
       <c r="B104" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="C104" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D104">
         <f t="shared" si="67"/>
         <v>2</v>
       </c>
       <c r="E104" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F104">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="G104" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H104">
         <f t="shared" ref="H104:J104" si="105">VLOOKUP(G104,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I104" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104">
         <f t="shared" si="105"/>
@@ -4946,31 +4946,31 @@
         <v>medway</v>
       </c>
       <c r="B105" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="C105" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D105">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="E105" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F105">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="G105" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H105">
         <f t="shared" ref="H105:J105" si="106">VLOOKUP(G105,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I105" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105">
         <f t="shared" si="106"/>
@@ -4983,31 +4983,31 @@
         <v>merthyr_tydfil</v>
       </c>
       <c r="B106" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="C106" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D106">
         <f t="shared" si="67"/>
         <v>2</v>
       </c>
       <c r="E106" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F106">
         <f t="shared" si="67"/>
         <v>2</v>
       </c>
       <c r="G106" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H106">
         <f t="shared" ref="H106:J106" si="107">VLOOKUP(G106,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I106" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106">
         <f t="shared" si="107"/>
@@ -5020,31 +5020,31 @@
         <v>merton</v>
       </c>
       <c r="B107" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D107">
         <f t="shared" si="67"/>
         <v>4</v>
       </c>
       <c r="E107" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F107">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="G107" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H107">
         <f t="shared" ref="H107:J107" si="108">VLOOKUP(G107,$N$1:$O$5,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="I107" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107">
         <f t="shared" si="108"/>
@@ -5057,31 +5057,31 @@
         <v>middlesbrough</v>
       </c>
       <c r="B108" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="C108" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D108">
         <f t="shared" si="67"/>
         <v>1</v>
       </c>
       <c r="E108" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F108">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="G108" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H108">
         <f t="shared" ref="H108:J108" si="109">VLOOKUP(G108,$N$1:$O$5,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108">
         <f t="shared" si="109"/>
@@ -5094,31 +5094,31 @@
         <v>midlothian</v>
       </c>
       <c r="B109" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="C109" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D109">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="E109" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F109">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="G109" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H109">
         <f t="shared" ref="H109:J109" si="110">VLOOKUP(G109,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I109" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109">
         <f t="shared" si="110"/>
@@ -5131,31 +5131,31 @@
         <v>milton_keynes</v>
       </c>
       <c r="B110" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="C110" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D110">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="E110" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F110">
         <f t="shared" si="67"/>
         <v>4</v>
       </c>
       <c r="G110" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H110">
         <f t="shared" ref="H110:J110" si="111">VLOOKUP(G110,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I110" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110">
         <f t="shared" si="111"/>
@@ -5165,34 +5165,34 @@
     <row r="111" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A111" t="str">
         <f t="shared" si="65"/>
-        <v>monmouthshire</v>
+        <v>monmouthshire_county_council</v>
       </c>
       <c r="B111" t="s">
-        <v>111</v>
+        <v>201</v>
       </c>
       <c r="C111" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D111">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="E111" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F111">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="G111" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H111">
         <f t="shared" ref="H111:J111" si="112">VLOOKUP(G111,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I111" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111">
         <f t="shared" si="112"/>
@@ -5205,31 +5205,31 @@
         <v>moray</v>
       </c>
       <c r="B112" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="C112" t="s">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <f t="shared" si="67"/>
+        <v>3</v>
+      </c>
+      <c r="E112" t="s">
+        <v>14</v>
+      </c>
+      <c r="F112">
+        <f t="shared" si="67"/>
         <v>1</v>
       </c>
-      <c r="D112">
-        <f t="shared" si="67"/>
-        <v>3</v>
-      </c>
-      <c r="E112" t="s">
-        <v>15</v>
-      </c>
-      <c r="F112">
-        <f t="shared" si="67"/>
-        <v>1</v>
-      </c>
       <c r="G112" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H112">
         <f t="shared" ref="H112:J112" si="113">VLOOKUP(G112,$N$1:$O$5,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="I112" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112">
         <f t="shared" si="113"/>
@@ -5242,31 +5242,31 @@
         <v>na_h-eileanan_siar</v>
       </c>
       <c r="B113" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="C113" t="s">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <f t="shared" si="67"/>
+        <v>3</v>
+      </c>
+      <c r="E113" t="s">
+        <v>14</v>
+      </c>
+      <c r="F113">
+        <f t="shared" si="67"/>
         <v>1</v>
       </c>
-      <c r="D113">
-        <f t="shared" si="67"/>
-        <v>3</v>
-      </c>
-      <c r="E113" t="s">
-        <v>15</v>
-      </c>
-      <c r="F113">
-        <f t="shared" si="67"/>
-        <v>1</v>
-      </c>
       <c r="G113" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H113">
         <f t="shared" ref="H113:J113" si="114">VLOOKUP(G113,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I113" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113">
         <f t="shared" si="114"/>
@@ -5279,31 +5279,31 @@
         <v>neath_port_talbot</v>
       </c>
       <c r="B114" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="C114" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D114">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="E114" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F114">
         <f t="shared" si="67"/>
         <v>2</v>
       </c>
       <c r="G114" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H114">
         <f t="shared" ref="H114:J114" si="115">VLOOKUP(G114,$N$1:$O$5,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="I114" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114">
         <f t="shared" si="115"/>
@@ -5316,31 +5316,31 @@
         <v>newcastle_upon_tyne</v>
       </c>
       <c r="B115" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="C115" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D115">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="E115" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F115">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="G115" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H115">
         <f t="shared" ref="H115:J115" si="116">VLOOKUP(G115,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I115" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J115">
         <f t="shared" si="116"/>
@@ -5353,31 +5353,31 @@
         <v>newham</v>
       </c>
       <c r="B116" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="C116" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D116">
         <f t="shared" si="67"/>
         <v>2</v>
       </c>
       <c r="E116" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F116">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="G116" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H116">
         <f t="shared" ref="H116:J116" si="117">VLOOKUP(G116,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I116" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J116">
         <f t="shared" si="117"/>
@@ -5390,31 +5390,31 @@
         <v>newport</v>
       </c>
       <c r="B117" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="C117" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D117">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="E117" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F117">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="G117" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H117">
         <f t="shared" ref="H117:J117" si="118">VLOOKUP(G117,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I117" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117">
         <f t="shared" si="118"/>
@@ -5424,34 +5424,34 @@
     <row r="118" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A118" t="str">
         <f t="shared" si="65"/>
-        <v>north_ayrshire_mainland</v>
+        <v>north_ayrshire</v>
       </c>
       <c r="B118" t="s">
-        <v>118</v>
+        <v>202</v>
       </c>
       <c r="C118" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D118">
         <f t="shared" si="67"/>
         <v>2</v>
       </c>
       <c r="E118" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F118">
         <f t="shared" si="67"/>
         <v>2</v>
       </c>
       <c r="G118" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H118">
         <f t="shared" ref="H118:J118" si="119">VLOOKUP(G118,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I118" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J118">
         <f t="shared" si="119"/>
@@ -5464,31 +5464,31 @@
         <v>north_east_lincolnshire</v>
       </c>
       <c r="B119" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="C119" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D119">
         <f t="shared" si="67"/>
         <v>1</v>
       </c>
       <c r="E119" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="G119" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H119">
         <f t="shared" ref="H119:J119" si="120">VLOOKUP(G119,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I119" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J119">
         <f t="shared" si="120"/>
@@ -5501,31 +5501,31 @@
         <v>north_lanarkshire</v>
       </c>
       <c r="B120" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="C120" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D120">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="E120" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F120">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="G120" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H120">
         <f t="shared" ref="H120:J120" si="121">VLOOKUP(G120,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I120" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J120">
         <f t="shared" si="121"/>
@@ -5538,31 +5538,31 @@
         <v>north_lincolnshire</v>
       </c>
       <c r="B121" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="C121" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D121">
         <f t="shared" si="67"/>
         <v>2</v>
       </c>
       <c r="E121" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F121">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="G121" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H121">
         <f t="shared" ref="H121:J121" si="122">VLOOKUP(G121,$N$1:$O$5,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121">
         <f t="shared" si="122"/>
@@ -5575,31 +5575,31 @@
         <v>north_northamptonshire</v>
       </c>
       <c r="B122" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="C122" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D122">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="E122" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F122">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="G122" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H122">
         <f t="shared" ref="H122:J122" si="123">VLOOKUP(G122,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I122" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122">
         <f t="shared" si="123"/>
@@ -5612,31 +5612,31 @@
         <v>north_tyneside</v>
       </c>
       <c r="B123" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="C123" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D123">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="E123" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F123">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="G123" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H123">
         <f t="shared" ref="H123:J123" si="124">VLOOKUP(G123,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I123" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J123">
         <f t="shared" si="124"/>
@@ -5646,34 +5646,34 @@
     <row r="124" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A124" t="str">
         <f t="shared" si="65"/>
-        <v>north_yorkshire_cc</v>
+        <v>north_yorkshire_county_council</v>
       </c>
       <c r="B124" t="s">
-        <v>124</v>
+        <v>203</v>
       </c>
       <c r="C124" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D124">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="E124" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F124">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="G124" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H124">
         <f t="shared" ref="H124:J124" si="125">VLOOKUP(G124,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I124" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124">
         <f t="shared" si="125"/>
@@ -5686,31 +5686,31 @@
         <v>northern_ireland</v>
       </c>
       <c r="B125" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="C125" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D125">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="E125" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F125">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="G125" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H125">
         <f t="shared" ref="H125:J125" si="126">VLOOKUP(G125,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I125" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J125">
         <f t="shared" si="126"/>
@@ -5720,34 +5720,34 @@
     <row r="126" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A126" t="str">
         <f t="shared" si="65"/>
-        <v>northumberland</v>
+        <v>northumberland_county_council</v>
       </c>
       <c r="B126" t="s">
-        <v>126</v>
+        <v>204</v>
       </c>
       <c r="C126" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D126">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="E126" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F126">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="G126" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H126">
         <f t="shared" ref="H126:J126" si="127">VLOOKUP(G126,$N$1:$O$5,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="I126" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J126">
         <f t="shared" si="127"/>
@@ -5757,34 +5757,34 @@
     <row r="127" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A127" t="str">
         <f t="shared" si="65"/>
-        <v>norwich_and_norfolk</v>
+        <v>norwich_and_norfolk_county_council</v>
       </c>
       <c r="B127" t="s">
-        <v>127</v>
+        <v>205</v>
       </c>
       <c r="C127" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D127">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="E127" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="G127" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H127">
         <f t="shared" ref="H127:J127" si="128">VLOOKUP(G127,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I127" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127">
         <f t="shared" si="128"/>
@@ -5797,31 +5797,31 @@
         <v>nottingham</v>
       </c>
       <c r="B128" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C128" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D128">
         <f t="shared" si="67"/>
         <v>2</v>
       </c>
       <c r="E128" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F128">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="G128" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H128">
         <f t="shared" ref="H128:J128" si="129">VLOOKUP(G128,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I128" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128">
         <f t="shared" si="129"/>
@@ -5831,34 +5831,34 @@
     <row r="129" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A129" t="str">
         <f t="shared" si="65"/>
-        <v>nottinghamshire</v>
+        <v>nottinghamshire_county_council</v>
       </c>
       <c r="B129" t="s">
-        <v>129</v>
+        <v>206</v>
       </c>
       <c r="C129" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D129">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="E129" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F129">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="G129" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H129">
         <f t="shared" ref="H129:J129" si="130">VLOOKUP(G129,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I129" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129">
         <f t="shared" si="130"/>
@@ -5871,31 +5871,31 @@
         <v>oldham</v>
       </c>
       <c r="B130" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="C130" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D130">
         <f t="shared" si="67"/>
         <v>1</v>
       </c>
       <c r="E130" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F130">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="G130" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H130">
         <f t="shared" ref="H130:J130" si="132">VLOOKUP(G130,$N$1:$O$5,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="I130" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130">
         <f t="shared" si="132"/>
@@ -5908,31 +5908,31 @@
         <v>orkney_islands</v>
       </c>
       <c r="B131" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="C131" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D131">
         <f t="shared" ref="D131:F194" si="133">VLOOKUP(C131,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="E131" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F131">
         <f t="shared" si="133"/>
         <v>1</v>
       </c>
       <c r="G131" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H131">
         <f t="shared" ref="H131:J131" si="134">VLOOKUP(G131,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I131" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131">
         <f t="shared" si="134"/>
@@ -5942,34 +5942,34 @@
     <row r="132" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A132" t="str">
         <f t="shared" si="131"/>
-        <v>oxfordshire_cc</v>
+        <v>oxfordshire_county_council</v>
       </c>
       <c r="B132" t="s">
-        <v>132</v>
+        <v>207</v>
       </c>
       <c r="C132" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D132">
         <f t="shared" si="133"/>
         <v>5</v>
       </c>
       <c r="E132" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F132">
         <f t="shared" si="133"/>
         <v>4</v>
       </c>
       <c r="G132" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H132">
         <f t="shared" ref="H132:J132" si="135">VLOOKUP(G132,$N$1:$O$5,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="I132" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J132">
         <f t="shared" si="135"/>
@@ -5979,34 +5979,34 @@
     <row r="133" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A133" t="str">
         <f t="shared" si="131"/>
-        <v>pembrokeshire</v>
+        <v>pembrokeshire_county_council</v>
       </c>
       <c r="B133" t="s">
-        <v>133</v>
+        <v>208</v>
       </c>
       <c r="C133" t="s">
+        <v>0</v>
+      </c>
+      <c r="D133">
+        <f t="shared" si="133"/>
+        <v>3</v>
+      </c>
+      <c r="E133" t="s">
+        <v>14</v>
+      </c>
+      <c r="F133">
+        <f t="shared" si="133"/>
         <v>1</v>
       </c>
-      <c r="D133">
-        <f t="shared" si="133"/>
-        <v>3</v>
-      </c>
-      <c r="E133" t="s">
-        <v>15</v>
-      </c>
-      <c r="F133">
-        <f t="shared" si="133"/>
-        <v>1</v>
-      </c>
       <c r="G133" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H133">
         <f t="shared" ref="H133:J133" si="136">VLOOKUP(G133,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I133" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133">
         <f t="shared" si="136"/>
@@ -6019,31 +6019,31 @@
         <v>perth_and_kinross</v>
       </c>
       <c r="B134" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="C134" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D134">
         <f t="shared" si="133"/>
         <v>3</v>
       </c>
       <c r="E134" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134">
         <f t="shared" si="133"/>
         <v>3</v>
       </c>
       <c r="G134" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H134">
         <f t="shared" ref="H134:J134" si="137">VLOOKUP(G134,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I134" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134">
         <f t="shared" si="137"/>
@@ -6056,31 +6056,31 @@
         <v>peterborough</v>
       </c>
       <c r="B135" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="C135" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D135">
         <f t="shared" si="133"/>
         <v>2</v>
       </c>
       <c r="E135" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F135">
         <f t="shared" si="133"/>
         <v>3</v>
       </c>
       <c r="G135" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H135">
         <f t="shared" ref="H135:J135" si="138">VLOOKUP(G135,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I135" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J135">
         <f t="shared" si="138"/>
@@ -6093,31 +6093,31 @@
         <v>plymouth</v>
       </c>
       <c r="B136" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="C136" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D136">
         <f t="shared" si="133"/>
         <v>3</v>
       </c>
       <c r="E136" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F136">
         <f t="shared" si="133"/>
         <v>3</v>
       </c>
       <c r="G136" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H136">
         <f t="shared" ref="H136:J136" si="139">VLOOKUP(G136,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I136" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136">
         <f t="shared" si="139"/>
@@ -6130,31 +6130,31 @@
         <v>portsmouth</v>
       </c>
       <c r="B137" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="C137" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D137">
         <f t="shared" si="133"/>
         <v>3</v>
       </c>
       <c r="E137" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F137">
         <f t="shared" si="133"/>
         <v>3</v>
       </c>
       <c r="G137" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H137">
         <f t="shared" ref="H137:J137" si="140">VLOOKUP(G137,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I137" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J137">
         <f t="shared" si="140"/>
@@ -6164,34 +6164,34 @@
     <row r="138" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A138" t="str">
         <f t="shared" si="131"/>
-        <v>powys</v>
+        <v>powys_county_council</v>
       </c>
       <c r="B138" t="s">
-        <v>138</v>
+        <v>209</v>
       </c>
       <c r="C138" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D138">
         <f t="shared" si="133"/>
         <v>3</v>
       </c>
       <c r="E138" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F138">
         <f t="shared" si="133"/>
         <v>2</v>
       </c>
       <c r="G138" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H138">
         <f t="shared" ref="H138:J138" si="141">VLOOKUP(G138,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I138" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138">
         <f t="shared" si="141"/>
@@ -6204,31 +6204,31 @@
         <v>reading</v>
       </c>
       <c r="B139" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D139">
         <f t="shared" si="133"/>
         <v>4</v>
       </c>
       <c r="E139" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F139">
         <f t="shared" si="133"/>
         <v>4</v>
       </c>
       <c r="G139" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H139">
         <f t="shared" ref="H139:J139" si="142">VLOOKUP(G139,$N$1:$O$5,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="I139" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139">
         <f t="shared" si="142"/>
@@ -6241,31 +6241,31 @@
         <v>redbridge</v>
       </c>
       <c r="B140" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="C140" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D140">
         <f t="shared" si="133"/>
         <v>3</v>
       </c>
       <c r="E140" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F140">
         <f t="shared" si="133"/>
         <v>3</v>
       </c>
       <c r="G140" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H140">
         <f t="shared" ref="H140:J140" si="143">VLOOKUP(G140,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I140" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J140">
         <f t="shared" si="143"/>
@@ -6278,31 +6278,31 @@
         <v>redcar_and_cleveland</v>
       </c>
       <c r="B141" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="C141" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D141">
         <f t="shared" si="133"/>
         <v>2</v>
       </c>
       <c r="E141" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F141">
         <f t="shared" si="133"/>
         <v>3</v>
       </c>
       <c r="G141" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H141">
         <f t="shared" ref="H141:J141" si="144">VLOOKUP(G141,$N$1:$O$5,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="I141" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141">
         <f t="shared" si="144"/>
@@ -6315,31 +6315,31 @@
         <v>renfrewshire</v>
       </c>
       <c r="B142" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="C142" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D142">
         <f t="shared" si="133"/>
         <v>3</v>
       </c>
       <c r="E142" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F142">
         <f t="shared" si="133"/>
         <v>3</v>
       </c>
       <c r="G142" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H142">
         <f t="shared" ref="H142:J142" si="145">VLOOKUP(G142,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I142" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J142">
         <f t="shared" si="145"/>
@@ -6352,31 +6352,31 @@
         <v>rhondda_cynon_taf</v>
       </c>
       <c r="B143" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="C143" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D143">
         <f t="shared" si="133"/>
         <v>3</v>
       </c>
       <c r="E143" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F143">
         <f t="shared" si="133"/>
         <v>2</v>
       </c>
       <c r="G143" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H143">
         <f t="shared" ref="H143:J143" si="146">VLOOKUP(G143,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I143" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J143">
         <f t="shared" si="146"/>
@@ -6389,31 +6389,31 @@
         <v>richmond_upon_thames</v>
       </c>
       <c r="B144" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="C144" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D144">
         <f t="shared" si="133"/>
         <v>5</v>
       </c>
       <c r="E144" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F144">
         <f t="shared" si="133"/>
         <v>5</v>
       </c>
       <c r="G144" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H144">
         <f t="shared" ref="H144:J144" si="147">VLOOKUP(G144,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I144" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J144">
         <f t="shared" si="147"/>
@@ -6426,31 +6426,31 @@
         <v>rochdale</v>
       </c>
       <c r="B145" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="C145" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D145">
         <f t="shared" si="133"/>
         <v>2</v>
       </c>
       <c r="E145" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F145">
         <f t="shared" si="133"/>
         <v>3</v>
       </c>
       <c r="G145" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H145">
         <f t="shared" ref="H145:J145" si="148">VLOOKUP(G145,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I145" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J145">
         <f t="shared" si="148"/>
@@ -6463,31 +6463,31 @@
         <v>rotherham</v>
       </c>
       <c r="B146" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="C146" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D146">
         <f t="shared" si="133"/>
         <v>2</v>
       </c>
       <c r="E146" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F146">
         <f t="shared" si="133"/>
         <v>3</v>
       </c>
       <c r="G146" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H146">
         <f t="shared" ref="H146:J146" si="149">VLOOKUP(G146,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I146" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J146">
         <f t="shared" si="149"/>
@@ -6497,34 +6497,34 @@
     <row r="147" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A147" t="str">
         <f t="shared" si="131"/>
-        <v>rutland</v>
+        <v>rutland_county_council</v>
       </c>
       <c r="B147" t="s">
-        <v>147</v>
+        <v>210</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D147">
         <f t="shared" si="133"/>
         <v>4</v>
       </c>
       <c r="E147" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F147">
         <f t="shared" si="133"/>
         <v>3</v>
       </c>
       <c r="G147" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H147">
         <f t="shared" ref="H147:J147" si="150">VLOOKUP(G147,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I147" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J147">
         <f t="shared" si="150"/>
@@ -6537,31 +6537,31 @@
         <v>salford</v>
       </c>
       <c r="B148" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="C148" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D148">
         <f t="shared" si="133"/>
         <v>3</v>
       </c>
       <c r="E148" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F148">
         <f t="shared" si="133"/>
         <v>3</v>
       </c>
       <c r="G148" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H148">
         <f t="shared" ref="H148:J148" si="151">VLOOKUP(G148,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I148" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J148">
         <f t="shared" si="151"/>
@@ -6574,31 +6574,31 @@
         <v>sandwell</v>
       </c>
       <c r="B149" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="C149" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D149">
         <f t="shared" si="133"/>
         <v>1</v>
       </c>
       <c r="E149" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F149">
         <f t="shared" si="133"/>
         <v>3</v>
       </c>
       <c r="G149" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H149">
         <f t="shared" ref="H149:J149" si="152">VLOOKUP(G149,$N$1:$O$5,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="I149" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J149">
         <f t="shared" si="152"/>
@@ -6611,31 +6611,31 @@
         <v>scottish_borders</v>
       </c>
       <c r="B150" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="C150" t="s">
+        <v>0</v>
+      </c>
+      <c r="D150">
+        <f t="shared" si="133"/>
+        <v>3</v>
+      </c>
+      <c r="E150" t="s">
+        <v>14</v>
+      </c>
+      <c r="F150">
+        <f t="shared" si="133"/>
         <v>1</v>
       </c>
-      <c r="D150">
-        <f t="shared" si="133"/>
-        <v>3</v>
-      </c>
-      <c r="E150" t="s">
-        <v>15</v>
-      </c>
-      <c r="F150">
-        <f t="shared" si="133"/>
-        <v>1</v>
-      </c>
       <c r="G150" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H150">
         <f t="shared" ref="H150:J150" si="153">VLOOKUP(G150,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I150" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J150">
         <f t="shared" si="153"/>
@@ -6648,31 +6648,31 @@
         <v>sefton</v>
       </c>
       <c r="B151" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="C151" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D151">
         <f t="shared" si="133"/>
         <v>3</v>
       </c>
       <c r="E151" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F151">
         <f t="shared" si="133"/>
         <v>3</v>
       </c>
       <c r="G151" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H151">
         <f t="shared" ref="H151:J151" si="154">VLOOKUP(G151,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I151" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J151">
         <f t="shared" si="154"/>
@@ -6685,31 +6685,31 @@
         <v>sheffield</v>
       </c>
       <c r="B152" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="C152" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D152">
         <f t="shared" si="133"/>
         <v>3</v>
       </c>
       <c r="E152" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152">
         <f t="shared" si="133"/>
         <v>3</v>
       </c>
       <c r="G152" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H152">
         <f t="shared" ref="H152:J152" si="155">VLOOKUP(G152,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I152" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J152">
         <f t="shared" si="155"/>
@@ -6722,31 +6722,31 @@
         <v>shetland_islands</v>
       </c>
       <c r="B153" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="C153" t="s">
+        <v>0</v>
+      </c>
+      <c r="D153">
+        <f t="shared" si="133"/>
+        <v>3</v>
+      </c>
+      <c r="E153" t="s">
+        <v>14</v>
+      </c>
+      <c r="F153">
+        <f t="shared" si="133"/>
         <v>1</v>
       </c>
-      <c r="D153">
-        <f t="shared" si="133"/>
-        <v>3</v>
-      </c>
-      <c r="E153" t="s">
-        <v>15</v>
-      </c>
-      <c r="F153">
-        <f t="shared" si="133"/>
-        <v>1</v>
-      </c>
       <c r="G153" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H153">
         <f t="shared" ref="H153:J153" si="156">VLOOKUP(G153,$N$1:$O$5,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="I153" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J153">
         <f t="shared" si="156"/>
@@ -6759,31 +6759,31 @@
         <v>shropshire</v>
       </c>
       <c r="B154" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="C154" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D154">
         <f t="shared" si="133"/>
         <v>3</v>
       </c>
       <c r="E154" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F154">
         <f t="shared" si="133"/>
         <v>3</v>
       </c>
       <c r="G154" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H154">
         <f t="shared" ref="H154:J154" si="157">VLOOKUP(G154,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I154" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J154">
         <f t="shared" si="157"/>
@@ -6796,31 +6796,31 @@
         <v>slough</v>
       </c>
       <c r="B155" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="C155" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D155">
         <f t="shared" si="133"/>
         <v>3</v>
       </c>
       <c r="E155" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F155">
         <f t="shared" si="133"/>
         <v>4</v>
       </c>
       <c r="G155" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H155">
         <f t="shared" ref="H155:J155" si="158">VLOOKUP(G155,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I155" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J155">
         <f t="shared" si="158"/>
@@ -6833,31 +6833,31 @@
         <v>solihull</v>
       </c>
       <c r="B156" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="C156" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D156">
         <f t="shared" si="133"/>
         <v>3</v>
       </c>
       <c r="E156" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F156">
         <f t="shared" si="133"/>
         <v>3</v>
       </c>
       <c r="G156" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H156">
         <f t="shared" ref="H156:J156" si="159">VLOOKUP(G156,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I156" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J156">
         <f t="shared" si="159"/>
@@ -6867,34 +6867,34 @@
     <row r="157" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A157" t="str">
         <f t="shared" si="131"/>
-        <v>somerset_cc</v>
+        <v>somerset_county_council</v>
       </c>
       <c r="B157" t="s">
-        <v>157</v>
+        <v>211</v>
       </c>
       <c r="C157" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D157">
         <f t="shared" si="133"/>
         <v>3</v>
       </c>
       <c r="E157" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F157">
         <f t="shared" si="133"/>
         <v>3</v>
       </c>
       <c r="G157" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H157">
         <f t="shared" ref="H157:J157" si="160">VLOOKUP(G157,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I157" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J157">
         <f t="shared" si="160"/>
@@ -6907,31 +6907,31 @@
         <v>south_ayrshire</v>
       </c>
       <c r="B158" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="C158" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D158">
         <f t="shared" si="133"/>
         <v>3</v>
       </c>
       <c r="E158" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F158">
         <f t="shared" si="133"/>
         <v>2</v>
       </c>
       <c r="G158" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H158">
         <f t="shared" ref="H158:J158" si="161">VLOOKUP(G158,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I158" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158">
         <f t="shared" si="161"/>
@@ -6944,31 +6944,31 @@
         <v>south_lanarkshire</v>
       </c>
       <c r="B159" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="C159" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D159">
         <f t="shared" si="133"/>
         <v>3</v>
       </c>
       <c r="E159" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F159">
         <f t="shared" si="133"/>
         <v>3</v>
       </c>
       <c r="G159" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H159">
         <f t="shared" ref="H159:J159" si="162">VLOOKUP(G159,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I159" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J159">
         <f t="shared" si="162"/>
@@ -6981,31 +6981,31 @@
         <v>south_tyneside</v>
       </c>
       <c r="B160" t="s">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="C160" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D160">
         <f t="shared" si="133"/>
         <v>3</v>
       </c>
       <c r="E160" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F160">
         <f t="shared" si="133"/>
         <v>3</v>
       </c>
       <c r="G160" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H160">
         <f t="shared" ref="H160:J160" si="163">VLOOKUP(G160,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I160" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J160">
         <f t="shared" si="163"/>
@@ -7018,31 +7018,31 @@
         <v>southampton</v>
       </c>
       <c r="B161" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="C161" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D161">
         <f t="shared" si="133"/>
         <v>3</v>
       </c>
       <c r="E161" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F161">
         <f t="shared" si="133"/>
         <v>4</v>
       </c>
       <c r="G161" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H161">
         <f t="shared" ref="H161:J161" si="164">VLOOKUP(G161,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I161" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J161">
         <f t="shared" si="164"/>
@@ -7055,31 +7055,31 @@
         <v>southend-on-sea</v>
       </c>
       <c r="B162" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="C162" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D162">
         <f t="shared" si="133"/>
         <v>3</v>
       </c>
       <c r="E162" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162">
         <f t="shared" si="133"/>
         <v>3</v>
       </c>
       <c r="G162" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H162">
         <f t="shared" ref="H162:J162" si="165">VLOOKUP(G162,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I162" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J162">
         <f t="shared" si="165"/>
@@ -7092,31 +7092,31 @@
         <v>southwark</v>
       </c>
       <c r="B163" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="C163" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D163">
         <f t="shared" si="133"/>
         <v>3</v>
       </c>
       <c r="E163" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F163">
         <f t="shared" si="133"/>
         <v>3</v>
       </c>
       <c r="G163" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H163">
         <f t="shared" ref="H163:J163" si="166">VLOOKUP(G163,$N$1:$O$5,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="I163" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J163">
         <f t="shared" si="166"/>
@@ -7129,31 +7129,31 @@
         <v>st_helens</v>
       </c>
       <c r="B164" t="s">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="C164" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D164">
         <f t="shared" si="133"/>
         <v>3</v>
       </c>
       <c r="E164" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F164">
         <f t="shared" si="133"/>
         <v>3</v>
       </c>
       <c r="G164" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H164">
         <f t="shared" ref="H164:J164" si="167">VLOOKUP(G164,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I164" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J164">
         <f t="shared" si="167"/>
@@ -7163,34 +7163,34 @@
     <row r="165" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A165" t="str">
         <f t="shared" si="131"/>
-        <v>staffordshire_cc</v>
+        <v>staffordshire_county_council</v>
       </c>
       <c r="B165" t="s">
-        <v>165</v>
+        <v>212</v>
       </c>
       <c r="C165" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D165">
         <f t="shared" si="133"/>
         <v>3</v>
       </c>
       <c r="E165" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F165">
         <f t="shared" si="133"/>
         <v>3</v>
       </c>
       <c r="G165" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H165">
         <f t="shared" ref="H165:J165" si="168">VLOOKUP(G165,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I165" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J165">
         <f t="shared" si="168"/>
@@ -7203,31 +7203,31 @@
         <v>stirling</v>
       </c>
       <c r="B166" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D166">
         <f t="shared" si="133"/>
         <v>4</v>
       </c>
       <c r="E166" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F166">
         <f t="shared" si="133"/>
         <v>3</v>
       </c>
       <c r="G166" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H166">
         <f t="shared" ref="H166:J166" si="169">VLOOKUP(G166,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I166" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J166">
         <f t="shared" si="169"/>
@@ -7240,31 +7240,31 @@
         <v>stockport</v>
       </c>
       <c r="B167" t="s">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D167">
         <f t="shared" si="133"/>
         <v>4</v>
       </c>
       <c r="E167" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F167">
         <f t="shared" si="133"/>
         <v>3</v>
       </c>
       <c r="G167" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H167">
         <f t="shared" ref="H167:J167" si="170">VLOOKUP(G167,$N$1:$O$5,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="I167" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J167">
         <f t="shared" si="170"/>
@@ -7277,31 +7277,31 @@
         <v>stockton-on-tees</v>
       </c>
       <c r="B168" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="C168" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D168">
         <f t="shared" si="133"/>
         <v>3</v>
       </c>
       <c r="E168" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168">
         <f t="shared" si="133"/>
         <v>3</v>
       </c>
       <c r="G168" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H168">
         <f t="shared" ref="H168:J168" si="171">VLOOKUP(G168,$N$1:$O$5,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="I168" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J168">
         <f t="shared" si="171"/>
@@ -7314,31 +7314,31 @@
         <v>stoke-on-trent</v>
       </c>
       <c r="B169" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="C169" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D169">
         <f t="shared" si="133"/>
         <v>1</v>
       </c>
       <c r="E169" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F169">
         <f t="shared" si="133"/>
         <v>3</v>
       </c>
       <c r="G169" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H169">
         <f t="shared" ref="H169:J169" si="172">VLOOKUP(G169,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I169" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J169">
         <f t="shared" si="172"/>
@@ -7348,34 +7348,34 @@
     <row r="170" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A170" t="str">
         <f t="shared" si="131"/>
-        <v>suffolk_cc</v>
+        <v>suffolk_county_council</v>
       </c>
       <c r="B170" t="s">
-        <v>170</v>
+        <v>213</v>
       </c>
       <c r="C170" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D170">
         <f t="shared" si="133"/>
         <v>3</v>
       </c>
       <c r="E170" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F170">
         <f t="shared" si="133"/>
         <v>3</v>
       </c>
       <c r="G170" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H170">
         <f t="shared" ref="H170:J170" si="173">VLOOKUP(G170,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I170" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J170">
         <f t="shared" si="173"/>
@@ -7388,31 +7388,31 @@
         <v>sunderland</v>
       </c>
       <c r="B171" t="s">
-        <v>171</v>
+        <v>136</v>
       </c>
       <c r="C171" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D171">
         <f t="shared" si="133"/>
         <v>2</v>
       </c>
       <c r="E171" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171">
         <f t="shared" si="133"/>
         <v>3</v>
       </c>
       <c r="G171" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H171">
         <f t="shared" ref="H171:J171" si="174">VLOOKUP(G171,$N$1:$O$5,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="I171" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J171">
         <f t="shared" si="174"/>
@@ -7422,34 +7422,34 @@
     <row r="172" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A172" t="str">
         <f t="shared" si="131"/>
-        <v>surrey</v>
+        <v>surrey_county_council</v>
       </c>
       <c r="B172" t="s">
-        <v>172</v>
+        <v>214</v>
       </c>
       <c r="C172" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D172">
         <f t="shared" si="133"/>
         <v>5</v>
       </c>
       <c r="E172" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F172">
         <f t="shared" si="133"/>
         <v>3</v>
       </c>
       <c r="G172" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H172">
         <f t="shared" ref="H172:J172" si="175">VLOOKUP(G172,$N$1:$O$5,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="I172" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J172">
         <f t="shared" si="175"/>
@@ -7462,31 +7462,31 @@
         <v>sutton</v>
       </c>
       <c r="B173" t="s">
-        <v>173</v>
+        <v>137</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D173">
         <f t="shared" si="133"/>
         <v>4</v>
       </c>
       <c r="E173" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F173">
         <f t="shared" si="133"/>
         <v>3</v>
       </c>
       <c r="G173" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H173">
         <f t="shared" ref="H173:J173" si="176">VLOOKUP(G173,$N$1:$O$5,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="I173" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J173">
         <f t="shared" si="176"/>
@@ -7499,31 +7499,31 @@
         <v>swansea</v>
       </c>
       <c r="B174" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="C174" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D174">
         <f t="shared" si="133"/>
         <v>3</v>
       </c>
       <c r="E174" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F174">
         <f t="shared" si="133"/>
         <v>3</v>
       </c>
       <c r="G174" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H174">
         <f t="shared" ref="H174:J174" si="177">VLOOKUP(G174,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I174" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J174">
         <f t="shared" si="177"/>
@@ -7536,31 +7536,31 @@
         <v>swindon</v>
       </c>
       <c r="B175" t="s">
-        <v>175</v>
+        <v>139</v>
       </c>
       <c r="C175" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D175">
         <f t="shared" si="133"/>
         <v>3</v>
       </c>
       <c r="E175" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F175">
         <f t="shared" si="133"/>
         <v>3</v>
       </c>
       <c r="G175" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H175">
         <f t="shared" ref="H175:J175" si="178">VLOOKUP(G175,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I175" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J175">
         <f t="shared" si="178"/>
@@ -7573,31 +7573,31 @@
         <v>tameside</v>
       </c>
       <c r="B176" t="s">
-        <v>176</v>
+        <v>140</v>
       </c>
       <c r="C176" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D176">
         <f t="shared" si="133"/>
         <v>3</v>
       </c>
       <c r="E176" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F176">
         <f t="shared" si="133"/>
         <v>3</v>
       </c>
       <c r="G176" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H176">
         <f t="shared" ref="H176:J176" si="179">VLOOKUP(G176,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I176" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J176">
         <f t="shared" si="179"/>
@@ -7610,31 +7610,31 @@
         <v>telford_and_wrekin</v>
       </c>
       <c r="B177" t="s">
-        <v>177</v>
+        <v>141</v>
       </c>
       <c r="C177" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D177">
         <f t="shared" si="133"/>
         <v>3</v>
       </c>
       <c r="E177" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F177">
         <f t="shared" si="133"/>
         <v>3</v>
       </c>
       <c r="G177" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H177">
         <f t="shared" ref="H177:J177" si="180">VLOOKUP(G177,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I177" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J177">
         <f t="shared" si="180"/>
@@ -7647,31 +7647,31 @@
         <v>thurrock</v>
       </c>
       <c r="B178" t="s">
-        <v>178</v>
+        <v>142</v>
       </c>
       <c r="C178" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D178">
         <f t="shared" si="133"/>
         <v>3</v>
       </c>
       <c r="E178" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F178">
         <f t="shared" si="133"/>
         <v>3</v>
       </c>
       <c r="G178" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H178">
         <f t="shared" ref="H178:J178" si="181">VLOOKUP(G178,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I178" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J178">
         <f t="shared" si="181"/>
@@ -7684,31 +7684,31 @@
         <v>torbay</v>
       </c>
       <c r="B179" t="s">
-        <v>179</v>
+        <v>143</v>
       </c>
       <c r="C179" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D179">
         <f t="shared" si="133"/>
         <v>3</v>
       </c>
       <c r="E179" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F179">
         <f t="shared" si="133"/>
         <v>3</v>
       </c>
       <c r="G179" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H179">
         <f t="shared" ref="H179:J179" si="182">VLOOKUP(G179,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I179" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J179">
         <f t="shared" si="182"/>
@@ -7721,31 +7721,31 @@
         <v>torfaen</v>
       </c>
       <c r="B180" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="C180" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D180">
         <f t="shared" si="133"/>
         <v>2</v>
       </c>
       <c r="E180" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F180">
         <f t="shared" si="133"/>
         <v>1</v>
       </c>
       <c r="G180" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H180">
         <f t="shared" ref="H180:J180" si="183">VLOOKUP(G180,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I180" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J180">
         <f t="shared" si="183"/>
@@ -7758,31 +7758,31 @@
         <v>tower_hamlets</v>
       </c>
       <c r="B181" t="s">
-        <v>181</v>
+        <v>145</v>
       </c>
       <c r="C181" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D181">
         <f t="shared" si="133"/>
         <v>2</v>
       </c>
       <c r="E181" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F181">
         <f t="shared" si="133"/>
         <v>3</v>
       </c>
       <c r="G181" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H181">
         <f t="shared" ref="H181:J181" si="184">VLOOKUP(G181,$N$1:$O$5,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="I181" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J181">
         <f t="shared" si="184"/>
@@ -7795,31 +7795,31 @@
         <v>trafford</v>
       </c>
       <c r="B182" t="s">
-        <v>182</v>
+        <v>146</v>
       </c>
       <c r="C182" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D182">
         <f t="shared" si="133"/>
         <v>5</v>
       </c>
       <c r="E182" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F182">
         <f t="shared" si="133"/>
         <v>3</v>
       </c>
       <c r="G182" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H182">
         <f t="shared" ref="H182:J182" si="185">VLOOKUP(G182,$N$1:$O$5,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="I182" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J182">
         <f t="shared" si="185"/>
@@ -7832,31 +7832,31 @@
         <v>vale_of_glamorgan</v>
       </c>
       <c r="B183" t="s">
-        <v>183</v>
+        <v>147</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D183">
         <f t="shared" si="133"/>
         <v>4</v>
       </c>
       <c r="E183" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F183">
         <f t="shared" si="133"/>
         <v>3</v>
       </c>
       <c r="G183" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H183">
         <f t="shared" ref="H183:J183" si="186">VLOOKUP(G183,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I183" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J183">
         <f t="shared" si="186"/>
@@ -7869,31 +7869,31 @@
         <v>wakefield</v>
       </c>
       <c r="B184" t="s">
-        <v>184</v>
+        <v>148</v>
       </c>
       <c r="C184" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D184">
         <f t="shared" si="133"/>
         <v>3</v>
       </c>
       <c r="E184" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F184">
         <f t="shared" si="133"/>
         <v>3</v>
       </c>
       <c r="G184" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H184">
         <f t="shared" ref="H184:J184" si="187">VLOOKUP(G184,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I184" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J184">
         <f t="shared" si="187"/>
@@ -7906,31 +7906,31 @@
         <v>walsall</v>
       </c>
       <c r="B185" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="C185" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D185">
         <f t="shared" si="133"/>
         <v>2</v>
       </c>
       <c r="E185" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F185">
         <f t="shared" si="133"/>
         <v>3</v>
       </c>
       <c r="G185" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H185">
         <f t="shared" ref="H185:J185" si="188">VLOOKUP(G185,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I185" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J185">
         <f t="shared" si="188"/>
@@ -7943,31 +7943,31 @@
         <v>waltham_forest</v>
       </c>
       <c r="B186" t="s">
-        <v>186</v>
+        <v>150</v>
       </c>
       <c r="C186" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D186">
         <f t="shared" si="133"/>
         <v>3</v>
       </c>
       <c r="E186" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F186">
         <f t="shared" si="133"/>
         <v>3</v>
       </c>
       <c r="G186" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H186">
         <f t="shared" ref="H186:J186" si="189">VLOOKUP(G186,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I186" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J186">
         <f t="shared" si="189"/>
@@ -7980,31 +7980,31 @@
         <v>wandsworth</v>
       </c>
       <c r="B187" t="s">
-        <v>187</v>
+        <v>151</v>
       </c>
       <c r="C187" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D187">
         <f t="shared" si="133"/>
         <v>5</v>
       </c>
       <c r="E187" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F187">
         <f t="shared" si="133"/>
         <v>5</v>
       </c>
       <c r="G187" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H187">
         <f t="shared" ref="H187:J187" si="190">VLOOKUP(G187,$N$1:$O$5,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="I187" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J187">
         <f t="shared" si="190"/>
@@ -8017,31 +8017,31 @@
         <v>warrington</v>
       </c>
       <c r="B188" t="s">
-        <v>188</v>
+        <v>152</v>
       </c>
       <c r="C188" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D188">
         <f t="shared" si="133"/>
         <v>3</v>
       </c>
       <c r="E188" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F188">
         <f t="shared" si="133"/>
         <v>4</v>
       </c>
       <c r="G188" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H188">
         <f t="shared" ref="H188:J188" si="191">VLOOKUP(G188,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I188" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J188">
         <f t="shared" si="191"/>
@@ -8051,34 +8051,34 @@
     <row r="189" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A189" t="str">
         <f t="shared" si="131"/>
-        <v>warwickshire_cc</v>
+        <v>warwickshire_county_council</v>
       </c>
       <c r="B189" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="C189" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D189">
         <f t="shared" si="133"/>
         <v>3</v>
       </c>
       <c r="E189" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F189">
         <f t="shared" si="133"/>
         <v>3</v>
       </c>
       <c r="G189" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H189">
         <f t="shared" ref="H189:J189" si="192">VLOOKUP(G189,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I189" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J189">
         <f t="shared" si="192"/>
@@ -8091,31 +8091,31 @@
         <v>west_berkshire</v>
       </c>
       <c r="B190" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="C190" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D190">
         <f t="shared" si="133"/>
         <v>4</v>
       </c>
       <c r="E190" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F190">
         <f t="shared" si="133"/>
         <v>4</v>
       </c>
       <c r="G190" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H190">
         <f t="shared" ref="H190:J190" si="193">VLOOKUP(G190,$N$1:$O$5,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="I190" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J190">
         <f t="shared" si="193"/>
@@ -8128,31 +8128,31 @@
         <v>west_dunbartonshire</v>
       </c>
       <c r="B191" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
       <c r="C191" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D191">
         <f t="shared" si="133"/>
         <v>2</v>
       </c>
       <c r="E191" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F191">
         <f t="shared" si="133"/>
         <v>3</v>
       </c>
       <c r="G191" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H191">
         <f t="shared" ref="H191:J191" si="194">VLOOKUP(G191,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I191" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J191">
         <f t="shared" si="194"/>
@@ -8165,31 +8165,31 @@
         <v>west_lothian</v>
       </c>
       <c r="B192" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="C192" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D192">
         <f t="shared" si="133"/>
         <v>3</v>
       </c>
       <c r="E192" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F192">
         <f t="shared" si="133"/>
         <v>3</v>
       </c>
       <c r="G192" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H192">
         <f t="shared" ref="H192:J192" si="195">VLOOKUP(G192,$N$1:$O$5,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="I192" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J192">
         <f t="shared" si="195"/>
@@ -8202,31 +8202,31 @@
         <v>west_northamptonshire</v>
       </c>
       <c r="B193" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="C193" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D193">
         <f t="shared" si="133"/>
         <v>3</v>
       </c>
       <c r="E193" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F193">
         <f t="shared" si="133"/>
         <v>3</v>
       </c>
       <c r="G193" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H193">
         <f t="shared" ref="H193:J193" si="196">VLOOKUP(G193,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I193" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J193">
         <f t="shared" si="196"/>
@@ -8236,34 +8236,34 @@
     <row r="194" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A194" t="str">
         <f t="shared" ref="A194:A204" si="197">LOWER(SUBSTITUTE(B194," ","_"))</f>
-        <v>west_sussex</v>
+        <v>west_sussex_county_council</v>
       </c>
       <c r="B194" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="C194" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D194">
         <f t="shared" si="133"/>
         <v>3</v>
       </c>
       <c r="E194" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F194">
         <f t="shared" si="133"/>
         <v>3</v>
       </c>
       <c r="G194" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H194">
         <f t="shared" ref="H194:J194" si="198">VLOOKUP(G194,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I194" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J194">
         <f t="shared" si="198"/>
@@ -8276,31 +8276,31 @@
         <v>westminster</v>
       </c>
       <c r="B195" t="s">
-        <v>195</v>
+        <v>157</v>
       </c>
       <c r="C195" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D195">
         <f t="shared" ref="D195:F204" si="199">VLOOKUP(C195,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="E195" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F195">
         <f t="shared" si="199"/>
         <v>5</v>
       </c>
       <c r="G195" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H195">
         <f t="shared" ref="H195:J195" si="200">VLOOKUP(G195,$N$1:$O$5,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="I195" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J195">
         <f t="shared" si="200"/>
@@ -8313,31 +8313,31 @@
         <v>wigan</v>
       </c>
       <c r="B196" t="s">
-        <v>196</v>
+        <v>158</v>
       </c>
       <c r="C196" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D196">
         <f t="shared" si="199"/>
         <v>3</v>
       </c>
       <c r="E196" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F196">
         <f t="shared" si="199"/>
         <v>3</v>
       </c>
       <c r="G196" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H196">
         <f t="shared" ref="H196:J196" si="201">VLOOKUP(G196,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I196" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J196">
         <f t="shared" si="201"/>
@@ -8350,31 +8350,31 @@
         <v>wiltshire</v>
       </c>
       <c r="B197" t="s">
-        <v>197</v>
+        <v>159</v>
       </c>
       <c r="C197" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D197">
         <f t="shared" si="199"/>
         <v>4</v>
       </c>
       <c r="E197" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F197">
         <f t="shared" si="199"/>
         <v>3</v>
       </c>
       <c r="G197" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H197">
         <f t="shared" ref="H197:J197" si="202">VLOOKUP(G197,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I197" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J197">
         <f t="shared" si="202"/>
@@ -8387,31 +8387,31 @@
         <v>windsor_and_maidenhead</v>
       </c>
       <c r="B198" t="s">
-        <v>198</v>
+        <v>160</v>
       </c>
       <c r="C198" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D198">
         <f t="shared" si="199"/>
         <v>5</v>
       </c>
       <c r="E198" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F198">
         <f t="shared" si="199"/>
         <v>4</v>
       </c>
       <c r="G198" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H198">
         <f t="shared" ref="H198:J198" si="203">VLOOKUP(G198,$N$1:$O$5,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="I198" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J198">
         <f t="shared" si="203"/>
@@ -8424,31 +8424,31 @@
         <v>wirral</v>
       </c>
       <c r="B199" t="s">
-        <v>199</v>
+        <v>161</v>
       </c>
       <c r="C199" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D199">
         <f t="shared" si="199"/>
         <v>3</v>
       </c>
       <c r="E199" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F199">
         <f t="shared" si="199"/>
         <v>3</v>
       </c>
       <c r="G199" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H199">
         <f t="shared" ref="H199:J199" si="204">VLOOKUP(G199,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I199" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J199">
         <f t="shared" si="204"/>
@@ -8461,31 +8461,31 @@
         <v>wokingham</v>
       </c>
       <c r="B200" t="s">
-        <v>200</v>
+        <v>162</v>
       </c>
       <c r="C200" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D200">
         <f t="shared" si="199"/>
         <v>5</v>
       </c>
       <c r="E200" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F200">
         <f t="shared" si="199"/>
         <v>4</v>
       </c>
       <c r="G200" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H200">
         <f t="shared" ref="H200:J200" si="205">VLOOKUP(G200,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I200" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J200">
         <f t="shared" si="205"/>
@@ -8498,31 +8498,31 @@
         <v>wolverhampton</v>
       </c>
       <c r="B201" t="s">
-        <v>201</v>
+        <v>163</v>
       </c>
       <c r="C201" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D201">
         <f t="shared" si="199"/>
         <v>2</v>
       </c>
       <c r="E201" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F201">
         <f t="shared" si="199"/>
         <v>3</v>
       </c>
       <c r="G201" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H201">
         <f t="shared" ref="H201:J201" si="206">VLOOKUP(G201,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I201" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J201">
         <f t="shared" si="206"/>
@@ -8532,34 +8532,34 @@
     <row r="202" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A202" t="str">
         <f t="shared" si="197"/>
-        <v>worcestershire_cc</v>
+        <v>worcestershire_county_council</v>
       </c>
       <c r="B202" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="C202" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D202">
         <f t="shared" si="199"/>
         <v>3</v>
       </c>
       <c r="E202" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F202">
         <f t="shared" si="199"/>
         <v>3</v>
       </c>
       <c r="G202" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H202">
         <f t="shared" ref="H202:J202" si="207">VLOOKUP(G202,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I202" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J202">
         <f t="shared" si="207"/>
@@ -8572,31 +8572,31 @@
         <v>wrexham</v>
       </c>
       <c r="B203" t="s">
-        <v>203</v>
+        <v>164</v>
       </c>
       <c r="C203" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D203">
         <f t="shared" si="199"/>
         <v>3</v>
       </c>
       <c r="E203" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F203">
         <f t="shared" si="199"/>
         <v>3</v>
       </c>
       <c r="G203" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H203">
         <f t="shared" ref="H203:J203" si="208">VLOOKUP(G203,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I203" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J203">
         <f t="shared" si="208"/>
@@ -8609,31 +8609,31 @@
         <v>york</v>
       </c>
       <c r="B204" t="s">
-        <v>204</v>
+        <v>165</v>
       </c>
       <c r="C204" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D204">
         <f t="shared" si="199"/>
         <v>3</v>
       </c>
       <c r="E204" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F204">
         <f t="shared" si="199"/>
         <v>3</v>
       </c>
       <c r="G204" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H204">
         <f t="shared" ref="H204:J204" si="209">VLOOKUP(G204,$N$1:$O$5,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I204" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J204">
         <f t="shared" si="209"/>
